--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T09:13:58+00:00</t>
+    <t>2022-03-30T09:29:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T09:29:59+00:00</t>
+    <t>2022-03-30T09:36:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T09:36:20+00:00</t>
+    <t>2022-03-30T09:37:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T09:37:53+00:00</t>
+    <t>2022-03-31T12:02:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1162,7 +1162,7 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
-    <t>https://www.vision-zero-oncology.de/fhir/ValueSet/vs-morphology-icd-o-3</t>
+    <t>https://www.vision-zero-oncology.de/fhir/ValueSet/morphology-icd-o-3</t>
   </si>
   <si>
     <t>Observation.value[x].coding.id</t>
@@ -1194,7 +1194,7 @@
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
-    <t>https://www.vision-zero-oncology.de/fhir/ValueSet/vs-morphology-snomed</t>
+    <t>https://www.vision-zero-oncology.de/fhir/ValueSet/morphology-snomed</t>
   </si>
   <si>
     <t>Observation.value[x].text</t>
@@ -1337,7 +1337,7 @@
     <t>topographyICD-O-3</t>
   </si>
   <si>
-    <t>https://www.vision-zero-oncology.de/fhir/ValueSet/vs-topography-icd-o-3</t>
+    <t>https://www.vision-zero-oncology.de/fhir/ValueSet/topography-icd-o-3</t>
   </si>
   <si>
     <t>Observation.bodySite.coding.id</t>
@@ -1364,7 +1364,7 @@
     <t>topographySnomed</t>
   </si>
   <si>
-    <t>https://www.vision-zero-oncology.de/fhir/ValueSet/vs-topography-snomed</t>
+    <t>https://www.vision-zero-oncology.de/fhir/ValueSet/topography-snomed</t>
   </si>
   <si>
     <t>Observation.bodySite.text</t>
@@ -2105,7 +2105,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.2734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.5703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T12:02:56+00:00</t>
+    <t>2022-04-20T16:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T16:54:19+00:00</t>
+    <t>2022-04-21T07:12:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T07:12:34+00:00</t>
+    <t>2022-04-22T12:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T12:41:11+00:00</t>
+    <t>2022-04-22T12:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T12:50:48+00:00</t>
+    <t>2022-04-22T14:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T14:55:40+00:00</t>
+    <t>2022-05-04T13:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T13:51:33+00:00</t>
+    <t>2022-05-23T11:41:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:41:38+00:00</t>
+    <t>2022-05-23T13:12:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T13:12:45+00:00</t>
+    <t>2022-05-24T10:44:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T10:44:26+00:00</t>
+    <t>2022-07-14T07:12:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T07:12:54+00:00</t>
+    <t>2022-07-25T13:12:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:12:11+00:00</t>
+    <t>2022-07-25T14:21:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:21:42+00:00</t>
+    <t>2022-07-25T14:41:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:41:10+00:00</t>
+    <t>2022-08-01T09:41:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:41:51+00:00</t>
+    <t>2022-08-01T09:45:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:45:26+00:00</t>
+    <t>2022-08-01T09:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:59:26+00:00</t>
+    <t>2022-08-03T15:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T15:26:13+00:00</t>
+    <t>2022-08-08T13:17:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:17:46+00:00</t>
+    <t>2022-08-08T13:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -39,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>SD_Histology_Topography</t>
+    <t>Histology_Topography</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:24:36+00:00</t>
+    <t>2022-08-09T12:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T12:15:50+00:00</t>
+    <t>2022-08-10T11:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T11:55:04+00:00</t>
+    <t>2022-08-15T15:57:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T15:57:18+00:00</t>
+    <t>2022-08-22T12:50:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T12:50:52+00:00</t>
+    <t>2022-08-24T11:54:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T11:54:47+00:00</t>
+    <t>2022-08-24T12:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T12:54:24+00:00</t>
+    <t>2022-08-25T14:53:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T14:53:23+00:00</t>
+    <t>2022-08-26T08:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:02:23+00:00</t>
+    <t>2022-08-26T08:17:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:17:36+00:00</t>
+    <t>2022-09-08T11:37:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T11:37:37+00:00</t>
+    <t>2022-09-22T12:10:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:10:51+00:00</t>
+    <t>2022-09-22T12:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:32:38+00:00</t>
+    <t>2022-11-21T12:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,10 +277,6 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -302,7 +298,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -701,6 +697,10 @@
   </si>
   <si>
     <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2082,39 +2082,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.57421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
@@ -2345,19 +2345,19 @@
         <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>82</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2379,28 +2379,28 @@
         <v>80</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2450,13 +2450,13 @@
         <v>82</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>82</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2496,25 +2496,25 @@
         <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2565,19 +2565,19 @@
         <v>82</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>82</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2611,28 +2611,28 @@
         <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2682,19 +2682,19 @@
         <v>82</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>82</v>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2728,7 +2728,7 @@
         <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>82</v>
@@ -2740,16 +2740,16 @@
         <v>82</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2775,43 +2775,43 @@
         <v>82</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>82</v>
@@ -2834,18 +2834,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>82</v>
@@ -2857,16 +2857,16 @@
         <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2916,31 +2916,31 @@
         <v>82</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>82</v>
@@ -2951,11 +2951,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2974,16 +2974,16 @@
         <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3033,7 +3033,7 @@
         <v>82</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>80</v>
@@ -3057,7 +3057,7 @@
         <v>82</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>82</v>
@@ -3068,11 +3068,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3091,16 +3091,16 @@
         <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3150,7 +3150,7 @@
         <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>80</v>
@@ -3162,7 +3162,7 @@
         <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>82</v>
@@ -3174,7 +3174,7 @@
         <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>82</v>
@@ -3185,11 +3185,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3202,25 +3202,25 @@
         <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>82</v>
@@ -3269,7 +3269,7 @@
         <v>82</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>80</v>
@@ -3281,7 +3281,7 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>82</v>
@@ -3293,7 +3293,7 @@
         <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>82</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3324,20 +3324,20 @@
         <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>82</v>
@@ -3386,7 +3386,7 @@
         <v>82</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>80</v>
@@ -3398,22 +3398,22 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>82</v>
@@ -3421,11 +3421,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3441,20 +3441,20 @@
         <v>82</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>82</v>
@@ -3503,7 +3503,7 @@
         <v>82</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>80</v>
@@ -3515,19 +3515,19 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AK12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>82</v>
@@ -3538,11 +3538,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3558,19 +3558,19 @@
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3620,7 +3620,7 @@
         <v>82</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>80</v>
@@ -3632,19 +3632,19 @@
         <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AK13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>82</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3663,34 +3663,34 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="I14" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>82</v>
@@ -3715,58 +3715,58 @@
         <v>82</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
+      <c r="AK14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>82</v>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>81</v>
@@ -3797,19 +3797,19 @@
         <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>82</v>
@@ -3834,29 +3834,29 @@
         <v>82</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA15" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>80</v>
@@ -3868,7 +3868,7 @@
         <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>82</v>
@@ -3880,10 +3880,10 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
@@ -3891,17 +3891,17 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>81</v>
@@ -3916,19 +3916,19 @@
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>82</v>
@@ -3938,7 +3938,7 @@
         <v>82</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>82</v>
@@ -3953,14 +3953,14 @@
         <v>82</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>82</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>82</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>80</v>
@@ -3989,7 +3989,7 @@
         <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>82</v>
@@ -4001,10 +4001,10 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
@@ -4012,42 +4012,42 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>82</v>
@@ -4072,66 +4072,66 @@
         <v>82</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4142,7 +4142,7 @@
         <v>80</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>82</v>
@@ -4154,7 +4154,7 @@
         <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>219</v>
@@ -4217,7 +4217,7 @@
         <v>80</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>82</v>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4269,16 +4269,16 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4325,7 +4325,7 @@
         <v>82</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>227</v>
@@ -4340,7 +4340,7 @@
         <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>82</v>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>81</v>
@@ -4383,7 +4383,7 @@
         <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>229</v>
@@ -4435,14 +4435,14 @@
         <v>82</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>234</v>
@@ -4457,7 +4457,7 @@
         <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>82</v>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>81</v>
@@ -4502,7 +4502,7 @@
         <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>229</v>
@@ -4578,7 +4578,7 @@
         <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>82</v>
@@ -4612,7 +4612,7 @@
         <v>80</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>82</v>
@@ -4624,7 +4624,7 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>219</v>
@@ -4687,7 +4687,7 @@
         <v>80</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>82</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4739,16 +4739,16 @@
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4795,7 +4795,7 @@
         <v>82</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>227</v>
@@ -4810,7 +4810,7 @@
         <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>82</v>
@@ -4841,22 +4841,22 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>242</v>
@@ -4923,13 +4923,13 @@
         <v>80</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>82</v>
@@ -4963,19 +4963,19 @@
         <v>80</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>250</v>
@@ -5040,13 +5040,13 @@
         <v>80</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>82</v>
@@ -5077,22 +5077,22 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F26" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>257</v>
@@ -5157,13 +5157,13 @@
         <v>80</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>82</v>
@@ -5197,19 +5197,19 @@
         <v>80</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>264</v>
@@ -5274,13 +5274,13 @@
         <v>80</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>82</v>
@@ -5314,16 +5314,16 @@
         <v>80</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>271</v>
@@ -5393,13 +5393,13 @@
         <v>80</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>82</v>
@@ -5444,7 +5444,7 @@
         <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>229</v>
@@ -5520,7 +5520,7 @@
         <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>82</v>
@@ -5554,7 +5554,7 @@
         <v>80</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>82</v>
@@ -5566,7 +5566,7 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>219</v>
@@ -5629,7 +5629,7 @@
         <v>80</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>82</v>
@@ -5662,7 +5662,7 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5681,16 +5681,16 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5737,7 +5737,7 @@
         <v>82</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>227</v>
@@ -5752,7 +5752,7 @@
         <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>82</v>
@@ -5783,22 +5783,22 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F32" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>242</v>
@@ -5865,13 +5865,13 @@
         <v>80</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>82</v>
@@ -5905,19 +5905,19 @@
         <v>80</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>250</v>
@@ -5982,13 +5982,13 @@
         <v>80</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>82</v>
@@ -6019,22 +6019,22 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F34" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>257</v>
@@ -6099,13 +6099,13 @@
         <v>80</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>82</v>
@@ -6139,19 +6139,19 @@
         <v>80</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>264</v>
@@ -6216,13 +6216,13 @@
         <v>80</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>82</v>
@@ -6256,16 +6256,16 @@
         <v>80</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>271</v>
@@ -6335,13 +6335,13 @@
         <v>80</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>82</v>
@@ -6386,7 +6386,7 @@
         <v>82</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>229</v>
@@ -6462,7 +6462,7 @@
         <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>82</v>
@@ -6496,7 +6496,7 @@
         <v>80</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>82</v>
@@ -6508,7 +6508,7 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>219</v>
@@ -6571,7 +6571,7 @@
         <v>80</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>82</v>
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6623,16 +6623,16 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6679,7 +6679,7 @@
         <v>82</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>227</v>
@@ -6694,7 +6694,7 @@
         <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>82</v>
@@ -6725,22 +6725,22 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F40" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>242</v>
@@ -6807,13 +6807,13 @@
         <v>80</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>82</v>
@@ -6847,19 +6847,19 @@
         <v>80</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>250</v>
@@ -6924,13 +6924,13 @@
         <v>80</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>82</v>
@@ -6961,22 +6961,22 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F42" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>257</v>
@@ -7041,13 +7041,13 @@
         <v>80</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>82</v>
@@ -7081,19 +7081,19 @@
         <v>80</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>264</v>
@@ -7158,13 +7158,13 @@
         <v>80</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>82</v>
@@ -7198,16 +7198,16 @@
         <v>80</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>271</v>
@@ -7277,13 +7277,13 @@
         <v>80</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>82</v>
@@ -7317,19 +7317,19 @@
         <v>80</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>284</v>
@@ -7396,13 +7396,13 @@
         <v>80</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>82</v>
@@ -7433,19 +7433,19 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>292</v>
@@ -7515,13 +7515,13 @@
         <v>80</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>297</v>
@@ -7564,7 +7564,7 @@
         <v>82</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>302</v>
@@ -7638,7 +7638,7 @@
         <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>82</v>
@@ -7647,7 +7647,7 @@
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>306</v>
@@ -7672,16 +7672,16 @@
         <v>80</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>309</v>
@@ -7751,13 +7751,13 @@
         <v>80</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>314</v>
@@ -7791,16 +7791,16 @@
         <v>80</v>
       </c>
       <c r="F49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>320</v>
@@ -7870,13 +7870,13 @@
         <v>80</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>325</v>
@@ -7910,16 +7910,16 @@
         <v>80</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>330</v>
@@ -7987,13 +7987,13 @@
         <v>80</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>82</v>
@@ -8036,7 +8036,7 @@
         <v>82</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>338</v>
@@ -8110,7 +8110,7 @@
         <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>342</v>
@@ -8144,19 +8144,19 @@
         <v>80</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>347</v>
@@ -8221,13 +8221,13 @@
         <v>80</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>353</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>82</v>
@@ -8263,19 +8263,19 @@
         <v>80</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>347</v>
@@ -8342,13 +8342,13 @@
         <v>80</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>353</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>82</v>
@@ -8382,7 +8382,7 @@
         <v>80</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>82</v>
@@ -8394,7 +8394,7 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>219</v>
@@ -8457,7 +8457,7 @@
         <v>80</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>82</v>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8509,16 +8509,16 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8565,7 +8565,7 @@
         <v>82</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE55" t="s" s="2">
         <v>227</v>
@@ -8580,7 +8580,7 @@
         <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>82</v>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>81</v>
@@ -8623,7 +8623,7 @@
         <v>82</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>229</v>
@@ -8675,14 +8675,14 @@
         <v>82</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB56" s="2"/>
       <c r="AC56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>234</v>
@@ -8697,7 +8697,7 @@
         <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>82</v>
@@ -8730,19 +8730,19 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G57" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="H57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>229</v>
@@ -8782,7 +8782,7 @@
         <v>82</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
@@ -8816,7 +8816,7 @@
         <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>82</v>
@@ -8850,7 +8850,7 @@
         <v>80</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>82</v>
@@ -8862,7 +8862,7 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>219</v>
@@ -8925,7 +8925,7 @@
         <v>80</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>82</v>
@@ -8958,7 +8958,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8977,16 +8977,16 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9033,7 +9033,7 @@
         <v>82</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE59" t="s" s="2">
         <v>227</v>
@@ -9048,7 +9048,7 @@
         <v>82</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>82</v>
@@ -9079,22 +9079,22 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F60" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>242</v>
@@ -9161,13 +9161,13 @@
         <v>80</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>82</v>
@@ -9201,19 +9201,19 @@
         <v>80</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J61" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>250</v>
@@ -9278,13 +9278,13 @@
         <v>80</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>82</v>
@@ -9315,22 +9315,22 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F62" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J62" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>257</v>
@@ -9395,13 +9395,13 @@
         <v>80</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>82</v>
@@ -9435,19 +9435,19 @@
         <v>80</v>
       </c>
       <c r="F63" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I63" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J63" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>264</v>
@@ -9512,13 +9512,13 @@
         <v>80</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>82</v>
@@ -9552,16 +9552,16 @@
         <v>80</v>
       </c>
       <c r="F64" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I64" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>271</v>
@@ -9631,13 +9631,13 @@
         <v>80</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>82</v>
@@ -9673,16 +9673,16 @@
         <v>80</v>
       </c>
       <c r="F65" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>229</v>
@@ -9722,7 +9722,7 @@
         <v>82</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" t="s" s="2">
@@ -9756,7 +9756,7 @@
         <v>82</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>82</v>
@@ -9790,7 +9790,7 @@
         <v>80</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>82</v>
@@ -9802,7 +9802,7 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>219</v>
@@ -9865,7 +9865,7 @@
         <v>80</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>82</v>
@@ -9898,7 +9898,7 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9917,16 +9917,16 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9973,7 +9973,7 @@
         <v>82</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE67" t="s" s="2">
         <v>227</v>
@@ -9988,7 +9988,7 @@
         <v>82</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>82</v>
@@ -10019,22 +10019,22 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F68" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J68" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>242</v>
@@ -10101,13 +10101,13 @@
         <v>80</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>82</v>
@@ -10141,19 +10141,19 @@
         <v>80</v>
       </c>
       <c r="F69" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J69" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>250</v>
@@ -10218,13 +10218,13 @@
         <v>80</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>82</v>
@@ -10255,22 +10255,22 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F70" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J70" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>257</v>
@@ -10335,13 +10335,13 @@
         <v>80</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>82</v>
@@ -10375,19 +10375,19 @@
         <v>80</v>
       </c>
       <c r="F71" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I71" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J71" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>264</v>
@@ -10452,13 +10452,13 @@
         <v>80</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>82</v>
@@ -10492,16 +10492,16 @@
         <v>80</v>
       </c>
       <c r="F72" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I72" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>271</v>
@@ -10571,13 +10571,13 @@
         <v>80</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>82</v>
@@ -10611,19 +10611,19 @@
         <v>80</v>
       </c>
       <c r="F73" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I73" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J73" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>284</v>
@@ -10690,13 +10690,13 @@
         <v>80</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>82</v>
@@ -10730,7 +10730,7 @@
         <v>80</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>82</v>
@@ -10742,7 +10742,7 @@
         <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>377</v>
@@ -10809,13 +10809,13 @@
         <v>80</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>384</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>82</v>
@@ -10824,7 +10824,7 @@
         <v>82</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>385</v>
@@ -10861,7 +10861,7 @@
         <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>388</v>
@@ -10934,7 +10934,7 @@
         <v>82</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>82</v>
@@ -11053,7 +11053,7 @@
         <v>82</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>82</v>
@@ -11087,7 +11087,7 @@
         <v>80</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>82</v>
@@ -11099,7 +11099,7 @@
         <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>407</v>
@@ -11134,7 +11134,7 @@
         <v>82</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X77" t="s" s="2">
         <v>410</v>
@@ -11164,13 +11164,13 @@
         <v>80</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>82</v>
@@ -11204,7 +11204,7 @@
         <v>80</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>82</v>
@@ -11216,7 +11216,7 @@
         <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>219</v>
@@ -11279,7 +11279,7 @@
         <v>80</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>82</v>
@@ -11312,7 +11312,7 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11331,16 +11331,16 @@
         <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L79" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11387,7 +11387,7 @@
         <v>82</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE79" t="s" s="2">
         <v>227</v>
@@ -11402,7 +11402,7 @@
         <v>82</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>82</v>
@@ -11433,7 +11433,7 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>81</v>
@@ -11445,7 +11445,7 @@
         <v>82</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>229</v>
@@ -11497,14 +11497,14 @@
         <v>82</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB80" s="2"/>
       <c r="AC80" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE80" t="s" s="2">
         <v>234</v>
@@ -11519,7 +11519,7 @@
         <v>82</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>82</v>
@@ -11552,19 +11552,19 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G81" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="H81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I81" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>229</v>
@@ -11604,7 +11604,7 @@
         <v>82</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X81" s="2"/>
       <c r="Y81" t="s" s="2">
@@ -11638,7 +11638,7 @@
         <v>82</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>82</v>
@@ -11672,7 +11672,7 @@
         <v>80</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>82</v>
@@ -11684,7 +11684,7 @@
         <v>82</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>219</v>
@@ -11747,7 +11747,7 @@
         <v>80</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>82</v>
@@ -11780,7 +11780,7 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11799,16 +11799,16 @@
         <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11855,7 +11855,7 @@
         <v>82</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE83" t="s" s="2">
         <v>227</v>
@@ -11870,7 +11870,7 @@
         <v>82</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>82</v>
@@ -11901,22 +11901,22 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I84" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F84" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J84" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>242</v>
@@ -11983,13 +11983,13 @@
         <v>80</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>82</v>
@@ -12023,19 +12023,19 @@
         <v>80</v>
       </c>
       <c r="F85" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I85" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J85" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>250</v>
@@ -12100,13 +12100,13 @@
         <v>80</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>82</v>
@@ -12137,22 +12137,22 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I86" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F86" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J86" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>257</v>
@@ -12217,13 +12217,13 @@
         <v>80</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>82</v>
@@ -12257,19 +12257,19 @@
         <v>80</v>
       </c>
       <c r="F87" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I87" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J87" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>264</v>
@@ -12334,13 +12334,13 @@
         <v>80</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>82</v>
@@ -12374,16 +12374,16 @@
         <v>80</v>
       </c>
       <c r="F88" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I88" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>271</v>
@@ -12453,13 +12453,13 @@
         <v>80</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>82</v>
@@ -12495,16 +12495,16 @@
         <v>80</v>
       </c>
       <c r="F89" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I89" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>229</v>
@@ -12544,7 +12544,7 @@
         <v>82</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X89" s="2"/>
       <c r="Y89" t="s" s="2">
@@ -12578,7 +12578,7 @@
         <v>82</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>82</v>
@@ -12612,7 +12612,7 @@
         <v>80</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>82</v>
@@ -12624,7 +12624,7 @@
         <v>82</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>219</v>
@@ -12687,7 +12687,7 @@
         <v>80</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>82</v>
@@ -12720,7 +12720,7 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12739,16 +12739,16 @@
         <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K91" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12795,7 +12795,7 @@
         <v>82</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE91" t="s" s="2">
         <v>227</v>
@@ -12810,7 +12810,7 @@
         <v>82</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>82</v>
@@ -12841,22 +12841,22 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I92" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F92" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J92" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>242</v>
@@ -12923,13 +12923,13 @@
         <v>80</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>82</v>
@@ -12963,19 +12963,19 @@
         <v>80</v>
       </c>
       <c r="F93" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I93" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J93" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>250</v>
@@ -13040,13 +13040,13 @@
         <v>80</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>82</v>
@@ -13077,22 +13077,22 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I94" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F94" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J94" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>257</v>
@@ -13157,13 +13157,13 @@
         <v>80</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>82</v>
@@ -13197,19 +13197,19 @@
         <v>80</v>
       </c>
       <c r="F95" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I95" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J95" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>264</v>
@@ -13274,13 +13274,13 @@
         <v>80</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>82</v>
@@ -13314,16 +13314,16 @@
         <v>80</v>
       </c>
       <c r="F96" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I96" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J96" t="s" s="2">
         <v>271</v>
@@ -13393,13 +13393,13 @@
         <v>80</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>82</v>
@@ -13433,19 +13433,19 @@
         <v>80</v>
       </c>
       <c r="F97" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I97" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J97" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>284</v>
@@ -13512,13 +13512,13 @@
         <v>80</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>82</v>
@@ -13552,7 +13552,7 @@
         <v>80</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>82</v>
@@ -13564,7 +13564,7 @@
         <v>82</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>432</v>
@@ -13601,7 +13601,7 @@
         <v>82</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X98" t="s" s="2">
         <v>436</v>
@@ -13631,13 +13631,13 @@
         <v>80</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>82</v>
@@ -13671,7 +13671,7 @@
         <v>80</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>82</v>
@@ -13748,13 +13748,13 @@
         <v>80</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>82</v>
@@ -13788,7 +13788,7 @@
         <v>80</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>82</v>
@@ -13865,13 +13865,13 @@
         <v>80</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>82</v>
@@ -14024,7 +14024,7 @@
         <v>80</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>82</v>
@@ -14036,7 +14036,7 @@
         <v>82</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>219</v>
@@ -14099,7 +14099,7 @@
         <v>80</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>82</v>
@@ -14132,7 +14132,7 @@
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -14151,16 +14151,16 @@
         <v>82</v>
       </c>
       <c r="J103" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K103" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L103" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -14222,7 +14222,7 @@
         <v>82</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>82</v>
@@ -14262,13 +14262,13 @@
         <v>82</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>471</v>
@@ -14277,10 +14277,10 @@
         <v>472</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>82</v>
@@ -14341,7 +14341,7 @@
         <v>82</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>82</v>
@@ -14353,7 +14353,7 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>82</v>
@@ -14375,7 +14375,7 @@
         <v>80</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>82</v>
@@ -14450,13 +14450,13 @@
         <v>80</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>478</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>82</v>
@@ -14490,7 +14490,7 @@
         <v>80</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>82</v>
@@ -14565,13 +14565,13 @@
         <v>80</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>478</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>82</v>
@@ -14605,7 +14605,7 @@
         <v>80</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>82</v>
@@ -14617,7 +14617,7 @@
         <v>82</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>486</v>
@@ -14654,7 +14654,7 @@
         <v>82</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X107" t="s" s="2">
         <v>490</v>
@@ -14684,13 +14684,13 @@
         <v>80</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>82</v>
@@ -14736,7 +14736,7 @@
         <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>495</v>
@@ -14773,7 +14773,7 @@
         <v>82</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X108" t="s" s="2">
         <v>499</v>
@@ -14809,7 +14809,7 @@
         <v>82</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>82</v>
@@ -14843,7 +14843,7 @@
         <v>80</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>82</v>
@@ -14920,13 +14920,13 @@
         <v>80</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>82</v>
@@ -14960,7 +14960,7 @@
         <v>80</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>82</v>
@@ -14972,7 +14972,7 @@
         <v>82</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K110" t="s" s="2">
         <v>508</v>
@@ -15035,13 +15035,13 @@
         <v>80</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>82</v>
@@ -15084,7 +15084,7 @@
         <v>82</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J111" t="s" s="2">
         <v>512</v>
@@ -15158,7 +15158,7 @@
         <v>82</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>82</v>
@@ -15201,7 +15201,7 @@
         <v>82</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>519</v>
@@ -15275,7 +15275,7 @@
         <v>82</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>82</v>
@@ -15318,7 +15318,7 @@
         <v>82</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J113" t="s" s="2">
         <v>459</v>
@@ -15394,7 +15394,7 @@
         <v>82</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>82</v>
@@ -15428,7 +15428,7 @@
         <v>80</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>82</v>
@@ -15440,7 +15440,7 @@
         <v>82</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>219</v>
@@ -15503,7 +15503,7 @@
         <v>80</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>82</v>
@@ -15536,7 +15536,7 @@
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -15555,16 +15555,16 @@
         <v>82</v>
       </c>
       <c r="J115" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K115" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L115" t="s" s="2">
         <v>224</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -15626,7 +15626,7 @@
         <v>82</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>82</v>
@@ -15666,13 +15666,13 @@
         <v>82</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>471</v>
@@ -15681,10 +15681,10 @@
         <v>472</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>82</v>
@@ -15745,7 +15745,7 @@
         <v>82</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>82</v>
@@ -15757,7 +15757,7 @@
         <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>82</v>
@@ -15776,22 +15776,22 @@
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F117" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I117" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F117" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J117" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>535</v>
@@ -15803,7 +15803,7 @@
         <v>537</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>82</v>
@@ -15828,13 +15828,13 @@
         <v>82</v>
       </c>
       <c r="W117" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="X117" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="X117" t="s" s="2">
+      <c r="Y117" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>82</v>
@@ -15855,16 +15855,16 @@
         <v>534</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>82</v>
@@ -15873,13 +15873,13 @@
         <v>538</v>
       </c>
       <c r="AL117" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM117" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AM117" t="s" s="2">
+      <c r="AN117" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -15898,16 +15898,16 @@
         <v>80</v>
       </c>
       <c r="F118" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I118" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J118" t="s" s="2">
         <v>540</v>
@@ -15977,13 +15977,13 @@
         <v>80</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>82</v>
@@ -16017,7 +16017,7 @@
         <v>80</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>82</v>
@@ -16029,7 +16029,7 @@
         <v>82</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>545</v>
@@ -16096,13 +16096,13 @@
         <v>80</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>384</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>82</v>
@@ -16111,7 +16111,7 @@
         <v>82</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>385</v>
@@ -16148,7 +16148,7 @@
         <v>82</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K120" t="s" s="2">
         <v>388</v>
@@ -16221,7 +16221,7 @@
         <v>82</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>82</v>
@@ -16340,7 +16340,7 @@
         <v>82</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:27:03+00:00</t>
+    <t>2023-03-22T15:45:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:20+00:00</t>
+    <t>2023-03-22T15:45:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:58+00:00</t>
+    <t>2023-04-03T10:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T10:13:34+00:00</t>
+    <t>2023-04-03T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:34:04+00:00</t>
+    <t>2023-04-03T12:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:58:47+00:00</t>
+    <t>2023-04-03T13:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:27:14+00:00</t>
+    <t>2023-04-03T13:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:54:41+00:00</t>
+    <t>2023-04-04T16:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T16:41:07+00:00</t>
+    <t>2023-04-06T11:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T11:42:20+00:00</t>
+    <t>2023-04-11T09:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:33:35+00:00</t>
+    <t>2023-04-17T09:23:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T09:23:06+00:00</t>
+    <t>2023-04-17T12:55:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T11:38:14+00:00</t>
+    <t>2023-06-26T12:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T12:20:42+00:00</t>
+    <t>2023-07-06T08:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:26:38+00:00</t>
+    <t>2023-07-06T08:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4595" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4595" uniqueCount="567">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:27:50+00:00</t>
+    <t>2023-09-27T08:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -156,6 +156,10 @@
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2264,19 +2268,19 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>41</v>
@@ -2287,10 +2291,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2301,7 +2305,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>41</v>
@@ -2310,19 +2314,19 @@
         <v>41</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2372,13 +2376,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -2407,10 +2411,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2421,7 +2425,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>41</v>
@@ -2430,16 +2434,16 @@
         <v>41</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2490,19 +2494,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -2525,10 +2529,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2539,28 +2543,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2610,19 +2614,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>41</v>
@@ -2645,10 +2649,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2659,7 +2663,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -2671,16 +2675,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2706,13 +2710,13 @@
         <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>41</v>
@@ -2730,19 +2734,19 @@
         <v>41</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -2765,21 +2769,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -2791,16 +2795,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2850,19 +2854,19 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>41</v>
@@ -2874,7 +2878,7 @@
         <v>41</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>41</v>
@@ -2885,14 +2889,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2911,16 +2915,16 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2970,7 +2974,7 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2994,7 +2998,7 @@
         <v>41</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>41</v>
@@ -3005,14 +3009,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3031,16 +3035,16 @@
         <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3090,7 +3094,7 @@
         <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -3102,7 +3106,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -3114,7 +3118,7 @@
         <v>41</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>41</v>
@@ -3125,14 +3129,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3145,25 +3149,25 @@
         <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>41</v>
@@ -3212,7 +3216,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -3224,7 +3228,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
@@ -3236,7 +3240,7 @@
         <v>41</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>41</v>
@@ -3247,10 +3251,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3270,20 +3274,20 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>41</v>
@@ -3332,7 +3336,7 @@
         <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -3344,22 +3348,22 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>41</v>
@@ -3367,14 +3371,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3390,20 +3394,20 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>41</v>
@@ -3452,7 +3456,7 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -3464,19 +3468,19 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>41</v>
@@ -3487,14 +3491,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3510,19 +3514,19 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3572,7 +3576,7 @@
         <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3584,19 +3588,19 @@
         <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>41</v>
@@ -3607,10 +3611,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3618,34 +3622,34 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>41</v>
@@ -3670,13 +3674,13 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>41</v>
@@ -3694,34 +3698,34 @@
         <v>41</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>41</v>
@@ -3729,10 +3733,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3740,7 +3744,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
@@ -3755,19 +3759,19 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>41</v>
@@ -3792,29 +3796,29 @@
         <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3826,7 +3830,7 @@
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>41</v>
@@ -3838,10 +3842,10 @@
         <v>41</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>41</v>
@@ -3849,20 +3853,20 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>40</v>
@@ -3877,19 +3881,19 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>41</v>
@@ -3899,7 +3903,7 @@
         <v>41</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>41</v>
@@ -3914,13 +3918,13 @@
         <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>41</v>
@@ -3938,7 +3942,7 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3950,7 +3954,7 @@
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>41</v>
@@ -3962,10 +3966,10 @@
         <v>41</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>41</v>
@@ -3973,21 +3977,21 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>41</v>
@@ -3996,22 +4000,22 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
@@ -4036,13 +4040,13 @@
         <v>41</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>41</v>
@@ -4060,45 +4064,45 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4109,7 +4113,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>41</v>
@@ -4121,13 +4125,13 @@
         <v>41</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4178,13 +4182,13 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>41</v>
@@ -4202,7 +4206,7 @@
         <v>41</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>41</v>
@@ -4213,14 +4217,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4239,16 +4243,16 @@
         <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4286,19 +4290,19 @@
         <v>41</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -4310,7 +4314,7 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
@@ -4322,7 +4326,7 @@
         <v>41</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>41</v>
@@ -4333,10 +4337,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4344,7 +4348,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
@@ -4356,22 +4360,22 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>41</v>
@@ -4408,17 +4412,17 @@
         <v>41</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -4430,7 +4434,7 @@
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>41</v>
@@ -4439,10 +4443,10 @@
         <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>41</v>
@@ -4453,20 +4457,20 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>40</v>
@@ -4478,22 +4482,22 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>41</v>
@@ -4503,7 +4507,7 @@
         <v>41</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>41</v>
@@ -4542,7 +4546,7 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4554,7 +4558,7 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>41</v>
@@ -4563,10 +4567,10 @@
         <v>41</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>41</v>
@@ -4577,10 +4581,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4591,7 +4595,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>41</v>
@@ -4603,13 +4607,13 @@
         <v>41</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4660,13 +4664,13 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>41</v>
@@ -4684,7 +4688,7 @@
         <v>41</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>41</v>
@@ -4695,14 +4699,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4721,16 +4725,16 @@
         <v>41</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4768,19 +4772,19 @@
         <v>41</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4792,7 +4796,7 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>41</v>
@@ -4804,7 +4808,7 @@
         <v>41</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>41</v>
@@ -4815,10 +4819,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4826,10 +4830,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
@@ -4838,22 +4842,22 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4902,19 +4906,19 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>41</v>
@@ -4923,10 +4927,10 @@
         <v>41</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>41</v>
@@ -4937,10 +4941,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4951,7 +4955,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>41</v>
@@ -4960,19 +4964,19 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5022,19 +5026,19 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
@@ -5043,10 +5047,10 @@
         <v>41</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>41</v>
@@ -5057,10 +5061,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5068,10 +5072,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
@@ -5080,20 +5084,20 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -5142,19 +5146,19 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
@@ -5163,10 +5167,10 @@
         <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>41</v>
@@ -5177,10 +5181,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5191,7 +5195,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
@@ -5200,20 +5204,20 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>41</v>
@@ -5262,19 +5266,19 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>41</v>
@@ -5283,10 +5287,10 @@
         <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>41</v>
@@ -5297,10 +5301,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5311,7 +5315,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
@@ -5320,22 +5324,22 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>41</v>
@@ -5384,19 +5388,19 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>41</v>
@@ -5405,10 +5409,10 @@
         <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>41</v>
@@ -5419,13 +5423,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>41</v>
@@ -5444,22 +5448,22 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -5469,7 +5473,7 @@
         <v>41</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>41</v>
@@ -5508,7 +5512,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -5520,7 +5524,7 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>41</v>
@@ -5529,10 +5533,10 @@
         <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>41</v>
@@ -5543,10 +5547,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5557,7 +5561,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
@@ -5569,13 +5573,13 @@
         <v>41</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5626,13 +5630,13 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>41</v>
@@ -5650,7 +5654,7 @@
         <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>41</v>
@@ -5661,14 +5665,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5687,16 +5691,16 @@
         <v>41</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5734,19 +5738,19 @@
         <v>41</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5758,7 +5762,7 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
@@ -5770,7 +5774,7 @@
         <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>41</v>
@@ -5781,10 +5785,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5792,10 +5796,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>41</v>
@@ -5804,22 +5808,22 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -5868,19 +5872,19 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
@@ -5889,10 +5893,10 @@
         <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>41</v>
@@ -5903,10 +5907,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5917,7 +5921,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>41</v>
@@ -5926,19 +5930,19 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5988,19 +5992,19 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
@@ -6009,10 +6013,10 @@
         <v>41</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>41</v>
@@ -6023,10 +6027,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6034,10 +6038,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
@@ -6046,20 +6050,20 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -6108,19 +6112,19 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
@@ -6129,10 +6133,10 @@
         <v>41</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>41</v>
@@ -6143,10 +6147,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6157,7 +6161,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>41</v>
@@ -6166,20 +6170,20 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
@@ -6228,19 +6232,19 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>41</v>
@@ -6249,10 +6253,10 @@
         <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>41</v>
@@ -6263,10 +6267,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6277,7 +6281,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>41</v>
@@ -6286,22 +6290,22 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
@@ -6350,19 +6354,19 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
@@ -6371,10 +6375,10 @@
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>41</v>
@@ -6385,13 +6389,13 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>41</v>
@@ -6410,22 +6414,22 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -6435,7 +6439,7 @@
         <v>41</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>41</v>
@@ -6474,7 +6478,7 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -6486,7 +6490,7 @@
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>41</v>
@@ -6495,10 +6499,10 @@
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>41</v>
@@ -6509,10 +6513,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6523,7 +6527,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
@@ -6535,13 +6539,13 @@
         <v>41</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6592,13 +6596,13 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>41</v>
@@ -6616,7 +6620,7 @@
         <v>41</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>41</v>
@@ -6627,14 +6631,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6653,16 +6657,16 @@
         <v>41</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6700,19 +6704,19 @@
         <v>41</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6724,7 +6728,7 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>41</v>
@@ -6736,7 +6740,7 @@
         <v>41</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>41</v>
@@ -6747,10 +6751,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6758,10 +6762,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>41</v>
@@ -6770,22 +6774,22 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -6834,19 +6838,19 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>41</v>
@@ -6855,10 +6859,10 @@
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>41</v>
@@ -6869,10 +6873,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6883,7 +6887,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>41</v>
@@ -6892,19 +6896,19 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6954,19 +6958,19 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>41</v>
@@ -6975,10 +6979,10 @@
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>41</v>
@@ -6989,10 +6993,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7000,10 +7004,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>41</v>
@@ -7012,20 +7016,20 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>41</v>
@@ -7074,19 +7078,19 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
@@ -7095,10 +7099,10 @@
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>41</v>
@@ -7109,10 +7113,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7123,7 +7127,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>41</v>
@@ -7132,20 +7136,20 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -7194,19 +7198,19 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>41</v>
@@ -7215,10 +7219,10 @@
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>41</v>
@@ -7229,10 +7233,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7243,7 +7247,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>41</v>
@@ -7252,22 +7256,22 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>41</v>
@@ -7316,19 +7320,19 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>41</v>
@@ -7337,10 +7341,10 @@
         <v>41</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>41</v>
@@ -7351,10 +7355,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7365,7 +7369,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>41</v>
@@ -7374,22 +7378,22 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>41</v>
@@ -7438,19 +7442,19 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
@@ -7459,10 +7463,10 @@
         <v>41</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>41</v>
@@ -7473,10 +7477,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7484,10 +7488,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>41</v>
@@ -7496,22 +7500,22 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>41</v>
@@ -7560,34 +7564,34 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>41</v>
@@ -7595,10 +7599,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7618,19 +7622,19 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7680,7 +7684,7 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7692,7 +7696,7 @@
         <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>41</v>
@@ -7701,13 +7705,13 @@
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>41</v>
@@ -7715,21 +7719,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>41</v>
@@ -7738,22 +7742,22 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -7802,34 +7806,34 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>41</v>
@@ -7837,21 +7841,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>41</v>
@@ -7860,22 +7864,22 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>41</v>
@@ -7924,34 +7928,34 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>41</v>
@@ -7959,10 +7963,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7973,7 +7977,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>41</v>
@@ -7982,19 +7986,19 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8044,19 +8048,19 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>41</v>
@@ -8065,13 +8069,13 @@
         <v>41</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>41</v>
@@ -8079,10 +8083,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8102,20 +8106,20 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -8164,7 +8168,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -8176,22 +8180,22 @@
         <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>41</v>
@@ -8199,10 +8203,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8213,7 +8217,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>41</v>
@@ -8222,22 +8226,22 @@
         <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -8286,45 +8290,45 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8335,7 +8339,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>41</v>
@@ -8347,13 +8351,13 @@
         <v>41</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8404,13 +8408,13 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>41</v>
@@ -8428,7 +8432,7 @@
         <v>41</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>41</v>
@@ -8439,14 +8443,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8465,16 +8469,16 @@
         <v>41</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8512,19 +8516,19 @@
         <v>41</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -8536,7 +8540,7 @@
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>41</v>
@@ -8548,7 +8552,7 @@
         <v>41</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>41</v>
@@ -8559,10 +8563,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8570,7 +8574,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
@@ -8582,22 +8586,22 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>41</v>
@@ -8634,17 +8638,17 @@
         <v>41</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8656,7 +8660,7 @@
         <v>41</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>41</v>
@@ -8665,10 +8669,10 @@
         <v>41</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>41</v>
@@ -8679,47 +8683,47 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="B55" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="C55" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -8729,7 +8733,7 @@
         <v>41</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>41</v>
@@ -8744,11 +8748,11 @@
         <v>41</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>41</v>
@@ -8766,7 +8770,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8778,7 +8782,7 @@
         <v>41</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>41</v>
@@ -8787,10 +8791,10 @@
         <v>41</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>41</v>
@@ -8801,10 +8805,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8815,7 +8819,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>41</v>
@@ -8827,13 +8831,13 @@
         <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8884,13 +8888,13 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>41</v>
@@ -8908,7 +8912,7 @@
         <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>41</v>
@@ -8919,14 +8923,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8945,16 +8949,16 @@
         <v>41</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8992,19 +8996,19 @@
         <v>41</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -9016,7 +9020,7 @@
         <v>41</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>41</v>
@@ -9028,7 +9032,7 @@
         <v>41</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>41</v>
@@ -9039,10 +9043,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9050,10 +9054,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>41</v>
@@ -9062,22 +9066,22 @@
         <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>41</v>
@@ -9126,19 +9130,19 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>41</v>
@@ -9147,10 +9151,10 @@
         <v>41</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>41</v>
@@ -9161,10 +9165,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9175,7 +9179,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>41</v>
@@ -9184,19 +9188,19 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9246,19 +9250,19 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>41</v>
@@ -9267,10 +9271,10 @@
         <v>41</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>41</v>
@@ -9281,10 +9285,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9292,10 +9296,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>41</v>
@@ -9304,20 +9308,20 @@
         <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>41</v>
@@ -9366,19 +9370,19 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>41</v>
@@ -9387,10 +9391,10 @@
         <v>41</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>41</v>
@@ -9401,10 +9405,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9415,7 +9419,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>41</v>
@@ -9424,20 +9428,20 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>41</v>
@@ -9486,19 +9490,19 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>41</v>
@@ -9507,10 +9511,10 @@
         <v>41</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>41</v>
@@ -9521,10 +9525,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9535,7 +9539,7 @@
         <v>39</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>41</v>
@@ -9544,22 +9548,22 @@
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>41</v>
@@ -9608,19 +9612,19 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>41</v>
@@ -9629,10 +9633,10 @@
         <v>41</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>41</v>
@@ -9643,13 +9647,13 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>41</v>
@@ -9659,7 +9663,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>41</v>
@@ -9668,22 +9672,22 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>41</v>
@@ -9693,7 +9697,7 @@
         <v>41</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>41</v>
@@ -9708,11 +9712,11 @@
         <v>41</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>41</v>
@@ -9730,7 +9734,7 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9742,7 +9746,7 @@
         <v>41</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>41</v>
@@ -9751,10 +9755,10 @@
         <v>41</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>41</v>
@@ -9765,10 +9769,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9779,7 +9783,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>41</v>
@@ -9791,13 +9795,13 @@
         <v>41</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9848,13 +9852,13 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>41</v>
@@ -9872,7 +9876,7 @@
         <v>41</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>41</v>
@@ -9883,14 +9887,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9909,16 +9913,16 @@
         <v>41</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9956,19 +9960,19 @@
         <v>41</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9980,7 +9984,7 @@
         <v>41</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>41</v>
@@ -9992,7 +9996,7 @@
         <v>41</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>41</v>
@@ -10003,10 +10007,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10014,10 +10018,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>41</v>
@@ -10026,22 +10030,22 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>41</v>
@@ -10090,19 +10094,19 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>41</v>
@@ -10111,10 +10115,10 @@
         <v>41</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>41</v>
@@ -10125,10 +10129,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10139,7 +10143,7 @@
         <v>39</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>41</v>
@@ -10148,19 +10152,19 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10210,19 +10214,19 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>41</v>
@@ -10231,10 +10235,10 @@
         <v>41</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>41</v>
@@ -10245,10 +10249,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10256,10 +10260,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>41</v>
@@ -10268,20 +10272,20 @@
         <v>41</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>41</v>
@@ -10330,19 +10334,19 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>41</v>
@@ -10351,10 +10355,10 @@
         <v>41</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>41</v>
@@ -10365,10 +10369,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10379,7 +10383,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>41</v>
@@ -10388,20 +10392,20 @@
         <v>41</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>41</v>
@@ -10450,19 +10454,19 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>41</v>
@@ -10471,10 +10475,10 @@
         <v>41</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>41</v>
@@ -10485,10 +10489,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10499,7 +10503,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>41</v>
@@ -10508,22 +10512,22 @@
         <v>41</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>41</v>
@@ -10572,19 +10576,19 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>41</v>
@@ -10593,10 +10597,10 @@
         <v>41</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>41</v>
@@ -10607,10 +10611,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10621,7 +10625,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>41</v>
@@ -10630,22 +10634,22 @@
         <v>41</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>41</v>
@@ -10694,19 +10698,19 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>41</v>
@@ -10715,10 +10719,10 @@
         <v>41</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>41</v>
@@ -10729,10 +10733,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10743,7 +10747,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>41</v>
@@ -10755,19 +10759,19 @@
         <v>41</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>41</v>
@@ -10792,13 +10796,13 @@
         <v>41</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>41</v>
@@ -10816,19 +10820,19 @@
         <v>41</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>41</v>
@@ -10837,10 +10841,10 @@
         <v>41</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>41</v>
@@ -10851,14 +10855,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10877,19 +10881,19 @@
         <v>41</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>41</v>
@@ -10914,13 +10918,13 @@
         <v>41</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>41</v>
@@ -10938,7 +10942,7 @@
         <v>41</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10950,33 +10954,33 @@
         <v>41</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10999,19 +11003,19 @@
         <v>41</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>41</v>
@@ -11060,7 +11064,7 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -11072,7 +11076,7 @@
         <v>41</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>41</v>
@@ -11081,10 +11085,10 @@
         <v>41</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>41</v>
@@ -11095,10 +11099,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11109,7 +11113,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>41</v>
@@ -11121,16 +11125,16 @@
         <v>41</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11156,13 +11160,13 @@
         <v>41</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>41</v>
@@ -11180,45 +11184,45 @@
         <v>41</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11229,7 +11233,7 @@
         <v>39</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>41</v>
@@ -11241,13 +11245,13 @@
         <v>41</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11298,13 +11302,13 @@
         <v>41</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>41</v>
@@ -11322,7 +11326,7 @@
         <v>41</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>41</v>
@@ -11333,14 +11337,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11359,16 +11363,16 @@
         <v>41</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11406,19 +11410,19 @@
         <v>41</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -11430,7 +11434,7 @@
         <v>41</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>41</v>
@@ -11442,7 +11446,7 @@
         <v>41</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>41</v>
@@ -11453,10 +11457,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11464,7 +11468,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>40</v>
@@ -11476,22 +11480,22 @@
         <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>41</v>
@@ -11528,17 +11532,17 @@
         <v>41</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC78" s="2"/>
       <c r="AD78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
@@ -11550,7 +11554,7 @@
         <v>41</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>41</v>
@@ -11559,10 +11563,10 @@
         <v>41</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>41</v>
@@ -11573,47 +11577,47 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B79" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="B79" t="s" s="2">
-        <v>416</v>
-      </c>
       <c r="C79" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>41</v>
@@ -11623,7 +11627,7 @@
         <v>41</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>41</v>
@@ -11638,11 +11642,11 @@
         <v>41</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y79" s="2"/>
       <c r="Z79" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>41</v>
@@ -11660,7 +11664,7 @@
         <v>41</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
@@ -11672,7 +11676,7 @@
         <v>41</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>41</v>
@@ -11681,10 +11685,10 @@
         <v>41</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>41</v>
@@ -11695,10 +11699,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11709,7 +11713,7 @@
         <v>39</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>41</v>
@@ -11721,13 +11725,13 @@
         <v>41</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11778,13 +11782,13 @@
         <v>41</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>41</v>
@@ -11802,7 +11806,7 @@
         <v>41</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>41</v>
@@ -11813,14 +11817,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11839,16 +11843,16 @@
         <v>41</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11886,19 +11890,19 @@
         <v>41</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
@@ -11910,7 +11914,7 @@
         <v>41</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>41</v>
@@ -11922,7 +11926,7 @@
         <v>41</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>41</v>
@@ -11933,10 +11937,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11944,10 +11948,10 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>41</v>
@@ -11956,22 +11960,22 @@
         <v>41</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>41</v>
@@ -12020,19 +12024,19 @@
         <v>41</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>41</v>
@@ -12041,10 +12045,10 @@
         <v>41</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>41</v>
@@ -12055,10 +12059,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12069,7 +12073,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>41</v>
@@ -12078,19 +12082,19 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12140,19 +12144,19 @@
         <v>41</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>41</v>
@@ -12161,10 +12165,10 @@
         <v>41</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>41</v>
@@ -12175,10 +12179,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12186,10 +12190,10 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>41</v>
@@ -12198,20 +12202,20 @@
         <v>41</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>41</v>
@@ -12260,19 +12264,19 @@
         <v>41</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>41</v>
@@ -12281,10 +12285,10 @@
         <v>41</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>41</v>
@@ -12295,10 +12299,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12309,7 +12313,7 @@
         <v>39</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>41</v>
@@ -12318,20 +12322,20 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>41</v>
@@ -12380,19 +12384,19 @@
         <v>41</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>41</v>
@@ -12401,10 +12405,10 @@
         <v>41</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>41</v>
@@ -12415,10 +12419,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12429,7 +12433,7 @@
         <v>39</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>41</v>
@@ -12438,22 +12442,22 @@
         <v>41</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>41</v>
@@ -12502,19 +12506,19 @@
         <v>41</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>41</v>
@@ -12523,10 +12527,10 @@
         <v>41</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>41</v>
@@ -12537,13 +12541,13 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>41</v>
@@ -12553,7 +12557,7 @@
         <v>39</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>41</v>
@@ -12562,22 +12566,22 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>41</v>
@@ -12587,7 +12591,7 @@
         <v>41</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>41</v>
@@ -12602,11 +12606,11 @@
         <v>41</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y87" s="2"/>
       <c r="Z87" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>41</v>
@@ -12624,7 +12628,7 @@
         <v>41</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>39</v>
@@ -12636,7 +12640,7 @@
         <v>41</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>41</v>
@@ -12645,10 +12649,10 @@
         <v>41</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>41</v>
@@ -12659,10 +12663,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12673,7 +12677,7 @@
         <v>39</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>41</v>
@@ -12685,13 +12689,13 @@
         <v>41</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12742,13 +12746,13 @@
         <v>41</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>41</v>
@@ -12766,7 +12770,7 @@
         <v>41</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>41</v>
@@ -12777,14 +12781,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12803,16 +12807,16 @@
         <v>41</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12850,19 +12854,19 @@
         <v>41</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>39</v>
@@ -12874,7 +12878,7 @@
         <v>41</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>41</v>
@@ -12886,7 +12890,7 @@
         <v>41</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>41</v>
@@ -12897,10 +12901,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12908,10 +12912,10 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>41</v>
@@ -12920,22 +12924,22 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>41</v>
@@ -12984,19 +12988,19 @@
         <v>41</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>41</v>
@@ -13005,10 +13009,10 @@
         <v>41</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>41</v>
@@ -13019,10 +13023,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13033,7 +13037,7 @@
         <v>39</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>41</v>
@@ -13042,19 +13046,19 @@
         <v>41</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13104,19 +13108,19 @@
         <v>41</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>41</v>
@@ -13125,10 +13129,10 @@
         <v>41</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>41</v>
@@ -13139,10 +13143,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13150,10 +13154,10 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>41</v>
@@ -13162,20 +13166,20 @@
         <v>41</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>41</v>
@@ -13224,19 +13228,19 @@
         <v>41</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>41</v>
@@ -13245,10 +13249,10 @@
         <v>41</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>41</v>
@@ -13259,10 +13263,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13273,7 +13277,7 @@
         <v>39</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>41</v>
@@ -13282,20 +13286,20 @@
         <v>41</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>41</v>
@@ -13344,19 +13348,19 @@
         <v>41</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>41</v>
@@ -13365,10 +13369,10 @@
         <v>41</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>41</v>
@@ -13379,10 +13383,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13393,7 +13397,7 @@
         <v>39</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>41</v>
@@ -13402,22 +13406,22 @@
         <v>41</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>41</v>
@@ -13466,19 +13470,19 @@
         <v>41</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>41</v>
@@ -13487,10 +13491,10 @@
         <v>41</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>41</v>
@@ -13501,10 +13505,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13515,7 +13519,7 @@
         <v>39</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>41</v>
@@ -13524,22 +13528,22 @@
         <v>41</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>41</v>
@@ -13588,19 +13592,19 @@
         <v>41</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>41</v>
@@ -13609,10 +13613,10 @@
         <v>41</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>41</v>
@@ -13623,10 +13627,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13637,7 +13641,7 @@
         <v>39</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>41</v>
@@ -13649,19 +13653,19 @@
         <v>41</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>41</v>
@@ -13686,13 +13690,13 @@
         <v>41</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>41</v>
@@ -13710,19 +13714,19 @@
         <v>41</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>41</v>
@@ -13731,10 +13735,10 @@
         <v>41</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>41</v>
@@ -13745,10 +13749,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13759,7 +13763,7 @@
         <v>39</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>41</v>
@@ -13771,16 +13775,16 @@
         <v>41</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13830,45 +13834,45 @@
         <v>41</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13879,7 +13883,7 @@
         <v>39</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>41</v>
@@ -13891,16 +13895,16 @@
         <v>41</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13950,45 +13954,45 @@
         <v>41</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14011,19 +14015,19 @@
         <v>41</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>41</v>
@@ -14072,7 +14076,7 @@
         <v>41</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>39</v>
@@ -14084,7 +14088,7 @@
         <v>41</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>41</v>
@@ -14093,10 +14097,10 @@
         <v>41</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>41</v>
@@ -14107,10 +14111,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14121,7 +14125,7 @@
         <v>39</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>41</v>
@@ -14133,13 +14137,13 @@
         <v>41</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14190,13 +14194,13 @@
         <v>41</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>41</v>
@@ -14214,7 +14218,7 @@
         <v>41</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>41</v>
@@ -14225,14 +14229,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14251,16 +14255,16 @@
         <v>41</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14310,7 +14314,7 @@
         <v>41</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>39</v>
@@ -14322,7 +14326,7 @@
         <v>41</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>41</v>
@@ -14334,7 +14338,7 @@
         <v>41</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>41</v>
@@ -14345,14 +14349,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14365,25 +14369,25 @@
         <v>41</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>41</v>
@@ -14432,7 +14436,7 @@
         <v>41</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>39</v>
@@ -14444,7 +14448,7 @@
         <v>41</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>41</v>
@@ -14456,7 +14460,7 @@
         <v>41</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>41</v>
@@ -14467,10 +14471,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14481,7 +14485,7 @@
         <v>39</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>41</v>
@@ -14493,13 +14497,13 @@
         <v>41</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14550,19 +14554,19 @@
         <v>41</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>41</v>
@@ -14571,10 +14575,10 @@
         <v>41</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>41</v>
@@ -14585,10 +14589,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14599,7 +14603,7 @@
         <v>39</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>41</v>
@@ -14611,13 +14615,13 @@
         <v>41</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14668,19 +14672,19 @@
         <v>41</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>41</v>
@@ -14689,10 +14693,10 @@
         <v>41</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>41</v>
@@ -14703,10 +14707,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14717,7 +14721,7 @@
         <v>39</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>41</v>
@@ -14729,19 +14733,19 @@
         <v>41</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>41</v>
@@ -14766,13 +14770,13 @@
         <v>41</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>41</v>
@@ -14790,31 +14794,31 @@
         <v>41</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>41</v>
@@ -14825,10 +14829,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14851,19 +14855,19 @@
         <v>41</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>41</v>
@@ -14888,13 +14892,13 @@
         <v>41</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>41</v>
@@ -14912,7 +14916,7 @@
         <v>41</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>39</v>
@@ -14924,19 +14928,19 @@
         <v>41</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>41</v>
@@ -14947,10 +14951,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14961,7 +14965,7 @@
         <v>39</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>41</v>
@@ -14973,17 +14977,17 @@
         <v>41</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>41</v>
@@ -15032,19 +15036,19 @@
         <v>41</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>41</v>
@@ -15056,7 +15060,7 @@
         <v>41</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>41</v>
@@ -15067,10 +15071,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15081,7 +15085,7 @@
         <v>39</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>41</v>
@@ -15093,13 +15097,13 @@
         <v>41</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15150,19 +15154,19 @@
         <v>41</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>41</v>
@@ -15171,10 +15175,10 @@
         <v>41</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>41</v>
@@ -15185,10 +15189,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15208,19 +15212,19 @@
         <v>41</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15270,7 +15274,7 @@
         <v>41</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>39</v>
@@ -15282,7 +15286,7 @@
         <v>41</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>41</v>
@@ -15291,10 +15295,10 @@
         <v>41</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>41</v>
@@ -15305,10 +15309,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15328,19 +15332,19 @@
         <v>41</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -15390,7 +15394,7 @@
         <v>41</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>39</v>
@@ -15402,7 +15406,7 @@
         <v>41</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>41</v>
@@ -15411,10 +15415,10 @@
         <v>41</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>41</v>
@@ -15425,10 +15429,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15448,22 +15452,22 @@
         <v>41</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>41</v>
@@ -15512,7 +15516,7 @@
         <v>41</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>39</v>
@@ -15524,7 +15528,7 @@
         <v>41</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>41</v>
@@ -15533,10 +15537,10 @@
         <v>41</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>41</v>
@@ -15547,10 +15551,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15561,7 +15565,7 @@
         <v>39</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>41</v>
@@ -15573,13 +15577,13 @@
         <v>41</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15630,13 +15634,13 @@
         <v>41</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>41</v>
@@ -15654,7 +15658,7 @@
         <v>41</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>41</v>
@@ -15665,14 +15669,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15691,16 +15695,16 @@
         <v>41</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -15750,7 +15754,7 @@
         <v>41</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>39</v>
@@ -15762,7 +15766,7 @@
         <v>41</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>41</v>
@@ -15774,7 +15778,7 @@
         <v>41</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>41</v>
@@ -15785,14 +15789,14 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -15805,25 +15809,25 @@
         <v>41</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>41</v>
@@ -15872,7 +15876,7 @@
         <v>41</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>39</v>
@@ -15884,7 +15888,7 @@
         <v>41</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>41</v>
@@ -15896,7 +15900,7 @@
         <v>41</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>41</v>
@@ -15907,10 +15911,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15918,10 +15922,10 @@
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>41</v>
@@ -15930,22 +15934,22 @@
         <v>41</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>41</v>
@@ -15970,13 +15974,13 @@
         <v>41</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>41</v>
@@ -15994,34 +15998,34 @@
         <v>41</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>41</v>
@@ -16029,10 +16033,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16043,7 +16047,7 @@
         <v>39</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>41</v>
@@ -16052,22 +16056,22 @@
         <v>41</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>41</v>
@@ -16116,45 +16120,45 @@
         <v>41</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16165,7 +16169,7 @@
         <v>39</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>41</v>
@@ -16177,19 +16181,19 @@
         <v>41</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>41</v>
@@ -16214,13 +16218,13 @@
         <v>41</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>41</v>
@@ -16238,19 +16242,19 @@
         <v>41</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>41</v>
@@ -16259,10 +16263,10 @@
         <v>41</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>41</v>
@@ -16273,14 +16277,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16299,19 +16303,19 @@
         <v>41</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>41</v>
@@ -16336,13 +16340,13 @@
         <v>41</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>41</v>
@@ -16360,7 +16364,7 @@
         <v>41</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>39</v>
@@ -16372,33 +16376,33 @@
         <v>41</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16424,16 +16428,16 @@
         <v>42</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>41</v>
@@ -16482,7 +16486,7 @@
         <v>41</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>39</v>
@@ -16494,7 +16498,7 @@
         <v>41</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>41</v>
@@ -16503,10 +16507,10 @@
         <v>41</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-27T08:44:59+00:00</t>
+    <t>2023-11-02T12:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:02:41+00:00</t>
+    <t>2023-11-02T12:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-histology-topography.xlsx
+++ b/StructureDefinition-histology-topography.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:07:33+00:00</t>
+    <t>2023-11-02T12:07:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
